--- a/remissivo.xlsx
+++ b/remissivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauen\Documents\ferramentas\legislasampa\regimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79019CD-B7A2-4A03-A474-5602B7906D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E485EC-8F3F-49F1-B8FF-F3892D30722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="-10" windowWidth="38520" windowHeight="21710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="0" windowWidth="38520" windowHeight="21710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Assunto</t>
   </si>
@@ -67,6 +67,15 @@
 Projeto de Lei
 Requerimento
 Substitutivo</t>
+  </si>
+  <si>
+    <t>Requerimento</t>
+  </si>
+  <si>
+    <t>Propositura</t>
+  </si>
+  <si>
+    <t>Projeto</t>
   </si>
 </sst>
 </file>
@@ -387,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,6 +458,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/remissivo.xlsx
+++ b/remissivo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauen\Documents\ferramentas\legislasampa\regimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E485EC-8F3F-49F1-B8FF-F3892D30722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E50A1E-2365-4EFF-8EC6-461E5753F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="0" windowWidth="38520" windowHeight="21710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25560" yWindow="21490" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Normas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Assunto</t>
   </si>
@@ -46,9 +47,6 @@
   </si>
   <si>
     <t>Adiamento em bloco</t>
-  </si>
-  <si>
-    <t>176,§10</t>
   </si>
   <si>
     <t>Adiamento de discussão ou votação</t>
@@ -76,6 +74,34 @@
   </si>
   <si>
     <t>Projeto</t>
+  </si>
+  <si>
+    <t>Prefixo</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Lei Orgânica</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Constituição Federal</t>
+  </si>
+  <si>
+    <t>Constituição Estadual</t>
+  </si>
+  <si>
+    <t>176,§10
+LO:41,I</t>
   </si>
 </sst>
 </file>
@@ -398,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -441,13 +467,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -455,12 +481,12 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>212</v>
@@ -468,10 +494,60 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80CB36E-8154-48F2-B1A3-0E5826339C67}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/remissivo.xlsx
+++ b/remissivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauen\Documents\ferramentas\legislasampa\regimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E50A1E-2365-4EFF-8EC6-461E5753F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D28F8-F974-49A8-860A-0ED8AA9FCCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25560" yWindow="21490" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25560" yWindow="21490" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Lei Orgânica</t>
   </si>
   <si>
-    <t>LO</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
@@ -100,8 +97,11 @@
     <t>Constituição Estadual</t>
   </si>
   <si>
+    <t>LOM</t>
+  </si>
+  <si>
     <t>176,§10
-LO:41,I</t>
+LOM:41,I</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80CB36E-8154-48F2-B1A3-0E5826339C67}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +528,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -536,18 +536,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/remissivo.xlsx
+++ b/remissivo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauen\Documents\ferramentas\legislasampa\regimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D28F8-F974-49A8-860A-0ED8AA9FCCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE70B7-33A9-4103-8202-C31E00C5938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25560" yWindow="21490" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,47 +16,29 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Normas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>Assunto</t>
   </si>
   <si>
+    <t>SubAssunto</t>
+  </si>
+  <si>
     <t>Dispositivos</t>
   </si>
   <si>
     <t>Vides</t>
   </si>
   <si>
-    <t>SubAssunto</t>
-  </si>
-  <si>
     <t>Proposições</t>
   </si>
   <si>
     <t>211-275</t>
-  </si>
-  <si>
-    <t>Adiamento em bloco</t>
-  </si>
-  <si>
-    <t>Adiamento de discussão ou votação</t>
-  </si>
-  <si>
-    <t>175,II
-176
-192,II
-225,II
-285</t>
   </si>
   <si>
     <t>Emenda
@@ -67,41 +49,262 @@
 Substitutivo</t>
   </si>
   <si>
-    <t>Requerimento</t>
-  </si>
-  <si>
-    <t>Propositura</t>
-  </si>
-  <si>
-    <t>Projeto</t>
-  </si>
-  <si>
-    <t>Prefixo</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Lei Orgânica</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Constituição Federal</t>
-  </si>
-  <si>
-    <t>Constituição Estadual</t>
-  </si>
-  <si>
-    <t>LOM</t>
+    <t>Adiamento de discussão ou votação</t>
+  </si>
+  <si>
+    <t>175,II
+176
+192,II
+225,II
+285</t>
+  </si>
+  <si>
+    <t>Adiamento em bloco</t>
   </si>
   <si>
     <t>176,§10
 LOM:41,I</t>
+  </si>
+  <si>
+    <t>Requerimento</t>
+  </si>
+  <si>
+    <t>Propositura</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>ABASTECIMENTO</t>
+  </si>
+  <si>
+    <t>Parecer da Comissão de Trânsito, Transporte e Atividade Econômica</t>
+  </si>
+  <si>
+    <t>47,V,4</t>
+  </si>
+  <si>
+    <t>ADMINISTRAÇÃO DIRETA E INDIRETA</t>
+  </si>
+  <si>
+    <t>Convocação dos responsáveis</t>
+  </si>
+  <si>
+    <t>46,VI</t>
+  </si>
+  <si>
+    <t>Criação de cargos e funções</t>
+  </si>
+  <si>
+    <t>103,I,d
+105,XXVI</t>
+  </si>
+  <si>
+    <t>Criação e organização</t>
+  </si>
+  <si>
+    <t>47,IV,1</t>
+  </si>
+  <si>
+    <t>Extinção de cargos</t>
+  </si>
+  <si>
+    <t>105,XXVI</t>
+  </si>
+  <si>
+    <t>Fiscalização dos atos</t>
+  </si>
+  <si>
+    <t>46,IX</t>
+  </si>
+  <si>
+    <t>Remuneração</t>
+  </si>
+  <si>
+    <t>ADOLESCENTE</t>
+  </si>
+  <si>
+    <t>Proteção</t>
+  </si>
+  <si>
+    <t>47,VII,a,4</t>
+  </si>
+  <si>
+    <t>ANISTIA</t>
+  </si>
+  <si>
+    <t>Deliberação por maioria absoluta</t>
+  </si>
+  <si>
+    <t>103,I,s</t>
+  </si>
+  <si>
+    <t>APARTE</t>
+  </si>
+  <si>
+    <t>139,IV
+306</t>
+  </si>
+  <si>
+    <t>Definição</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>Em audiência pública</t>
+  </si>
+  <si>
+    <t>86,§2º</t>
+  </si>
+  <si>
+    <t>Na Tribuna Popular</t>
+  </si>
+  <si>
+    <t>209,§1º</t>
+  </si>
+  <si>
+    <t>Não permitido</t>
+  </si>
+  <si>
+    <t>23
+157
+283
+290,parágrafo único
+304
+309
+383,§§1º,2º</t>
+  </si>
+  <si>
+    <t>Revisão</t>
+  </si>
+  <si>
+    <t>150,parágrafo único
+283,§3º</t>
+  </si>
+  <si>
+    <t>Aplicação Financeira</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL - Aplicação Financeira</t>
+  </si>
+  <si>
+    <t>Arma</t>
+  </si>
+  <si>
+    <t>PORTE DE ARMA</t>
+  </si>
+  <si>
+    <t>ATA DAS SESSÕES</t>
+  </si>
+  <si>
+    <t>146
+147</t>
+  </si>
+  <si>
+    <t>Aprovação</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Discussão</t>
+  </si>
+  <si>
+    <t>Impugnação</t>
+  </si>
+  <si>
+    <t>147,§§1º,3º,7º</t>
+  </si>
+  <si>
+    <t>Inscrição de voto de pesar</t>
+  </si>
+  <si>
+    <t>223,VIII</t>
+  </si>
+  <si>
+    <t>Notas taquigráficas</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Publicação</t>
+  </si>
+  <si>
+    <t>146
+147
+148
+149
+150
+183-A,§11</t>
+  </si>
+  <si>
+    <t>Redação</t>
+  </si>
+  <si>
+    <t>26,VI,VII</t>
+  </si>
+  <si>
+    <t>Retificação</t>
+  </si>
+  <si>
+    <t>147,§§1º,2º,3º,7º
+223,II</t>
+  </si>
+  <si>
+    <t>Revisão de discurso</t>
+  </si>
+  <si>
+    <t>149
+150</t>
+  </si>
+  <si>
+    <t>Sessão secreta</t>
+  </si>
+  <si>
+    <t>26,VII
+199
+200</t>
+  </si>
+  <si>
+    <t>Prefixo</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>LOM</t>
+  </si>
+  <si>
+    <t>Lei Orgânica</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Constituição Estadual</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Constituição Federal</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>2,§ú</t>
+  </si>
+  <si>
+    <t>SubAssunto2</t>
+  </si>
+  <si>
+    <t>3,caput</t>
   </si>
 </sst>
 </file>
@@ -422,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,7 +637,8 @@
     <col min="2" max="2" width="33.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.90625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="8.7265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -442,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -459,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -473,20 +677,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>212</v>
@@ -494,10 +698,347 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80CB36E-8154-48F2-B1A3-0E5826339C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -520,34 +1061,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/remissivo.xlsx
+++ b/remissivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauen\Documents\ferramentas\legislasampa\regimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE70B7-33A9-4103-8202-C31E00C5938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885DAF25-D945-4C4D-AE74-41B77DB62BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25560" yWindow="21490" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="-10" windowWidth="38520" windowHeight="21710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Assunto</t>
   </si>
@@ -306,15 +306,27 @@
   <si>
     <t>3,caput</t>
   </si>
+  <si>
+    <t>SubAssunto3</t>
+  </si>
+  <si>
+    <t>13,I,b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1041,7 +1053,19 @@
         <v>84</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
